--- a/result/atest_060_zernikemomentcalctime_GPU_CAC_24P_4K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_CAC_24P_4K.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,28 +485,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6398745769342288</v>
+        <v>0.756987021495738</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9141236104441738</v>
+        <v>-1.051368814396746</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1383952697118123</v>
+        <v>0.09598354498545329</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1531478563944499</v>
+        <v>0.1320974032084147</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2238548199335734</v>
+        <v>0.1914488077163696</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3551967938741048</v>
+        <v>0.2845659653345744</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2176486849784851</v>
+        <v>0.176023930311203</v>
       </c>
     </row>
     <row r="3">
@@ -521,28 +521,136 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.813211764944701</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.060353721389284</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.09436126550038655</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1326314210891724</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2028528451919556</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2994799613952637</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1823313732941945</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7166817011601647</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.9823152820051796</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1158914566040039</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1404352982838949</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2204384406407674</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3199601968129476</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1991813480854034</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.591864336025229</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.8939224930229307</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1422922213872274</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1562263170878092</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2396169106165568</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3271561066309611</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2163228889306386</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>24</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.6226721083023723</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.878372802317099</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1516443888346354</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1595694224039713</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.2449823220570882</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.3741252422332764</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.2325803438822428</v>
+      <c r="D6" t="n">
+        <v>0.6128571709518943</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.864321391885448</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1527477502822876</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1709555387496948</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2544823090235392</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3681893746058146</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2365937431653341</v>
       </c>
     </row>
   </sheetData>
